--- a/reference/static/files/exampt.xlsx
+++ b/reference/static/files/exampt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Office\Project\ReferenceData\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Develop\Git\GitHub\ecs-support\KM\reference\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8298F0-B34F-4600-BBA6-5E8BF5CB3A6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A4BDC2-1016-4353-B8D2-D8FC84431AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="46">
   <si>
     <t>รหัสยกเว้น</t>
   </si>
@@ -161,14 +161,14 @@
     <t>รหัสยกเว้นไม่ต้องมีใบอนุญาต/ใบรับรอง</t>
   </si>
   <si>
-    <t>อัพเดท : 21 ต.ค. 62</t>
+    <t>อัพเดทล่าสุด 09/09/2564</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -198,15 +198,8 @@
       <name val="TH Sarabun New"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="TH Sarabun New"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,12 +277,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.6"/>
@@ -639,12 +638,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A2" s="7" t="s">
@@ -996,7 +995,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4">
         <v>20171113</v>
@@ -1010,7 +1009,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" s="4">
         <v>20171113</v>
@@ -1024,7 +1023,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" s="4">
         <v>20171113</v>
@@ -1038,7 +1037,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D29" s="4">
         <v>20171113</v>
@@ -1052,7 +1051,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D30" s="4">
         <v>20171113</v>
@@ -1066,7 +1065,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="4">
         <v>20171113</v>
@@ -1077,10 +1076,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D32" s="4">
         <v>20171113</v>
@@ -1091,10 +1090,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D33" s="4">
         <v>20171113</v>
@@ -1108,7 +1107,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D34" s="4">
         <v>20171113</v>
@@ -1122,7 +1121,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D35" s="4">
         <v>20171113</v>
@@ -1136,7 +1135,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D36" s="4">
         <v>20171113</v>
@@ -1147,10 +1146,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D37" s="4">
         <v>20171113</v>
@@ -1161,10 +1160,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D38" s="4">
         <v>20171113</v>
@@ -1178,7 +1177,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D39" s="4">
         <v>20171113</v>
@@ -1192,7 +1191,7 @@
         <v>25</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D40" s="4">
         <v>20171113</v>
@@ -1203,10 +1202,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D41" s="4">
         <v>20171113</v>
@@ -1217,10 +1216,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D42" s="4">
         <v>20171113</v>
@@ -1234,7 +1233,7 @@
         <v>31</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D43" s="4">
         <v>20171113</v>
@@ -1245,10 +1244,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D44" s="4">
         <v>20171113</v>
@@ -1259,10 +1258,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D45" s="4">
         <v>20171113</v>
@@ -1273,10 +1272,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D46" s="4">
         <v>20171113</v>
@@ -1290,7 +1289,7 @@
         <v>26</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D47" s="4">
         <v>20171113</v>
@@ -1301,10 +1300,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D48" s="4">
         <v>20171113</v>
@@ -1315,10 +1314,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D49" s="4">
         <v>20171113</v>
@@ -1329,10 +1328,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D50" s="4">
         <v>20171113</v>
@@ -1343,10 +1342,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D51" s="4">
         <v>20171113</v>
@@ -1357,10 +1356,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D52" s="4">
         <v>20171113</v>
@@ -1371,10 +1370,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D53" s="4">
         <v>20171113</v>
@@ -1385,7 +1384,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>38</v>
@@ -1399,7 +1398,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>14</v>
@@ -1413,10 +1412,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D56" s="4">
         <v>20171113</v>
@@ -1427,10 +1426,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D57" s="4">
         <v>20171113</v>
@@ -1441,10 +1440,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D58" s="4">
         <v>20171113</v>
@@ -1458,7 +1457,7 @@
         <v>30</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D59" s="4">
         <v>20171113</v>
@@ -1472,7 +1471,7 @@
         <v>30</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D60" s="4">
         <v>20171113</v>
@@ -1483,10 +1482,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D61" s="4">
         <v>20171113</v>
@@ -1497,10 +1496,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D62" s="4">
         <v>20171113</v>
@@ -1511,10 +1510,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D63" s="4">
         <v>20171113</v>
@@ -1525,10 +1524,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D64" s="4">
         <v>20171113</v>
@@ -1539,10 +1538,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D65" s="4">
         <v>20171113</v>
@@ -1553,7 +1552,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>38</v>
@@ -1567,7 +1566,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>14</v>
@@ -1581,10 +1580,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D68" s="4">
         <v>20171113</v>
@@ -1595,10 +1594,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D69" s="4">
         <v>20171113</v>
@@ -1609,10 +1608,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D70" s="4">
         <v>20171113</v>
@@ -1623,10 +1622,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D71" s="4">
         <v>20171113</v>
@@ -1637,10 +1636,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D72" s="4">
         <v>20171113</v>
@@ -1651,10 +1650,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D73" s="4">
         <v>20171113</v>
@@ -1665,12 +1664,54 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="4">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A75" s="2">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="4">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A76" s="2">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="4">
+      <c r="C76" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="4">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A77" s="2">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="4">
         <v>20171113</v>
       </c>
     </row>
@@ -1690,7 +1731,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.6"/>
@@ -1700,7 +1741,7 @@
     <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>

--- a/reference/static/files/exampt.xlsx
+++ b/reference/static/files/exampt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Develop\Git\GitHub\ecs-support\KM\reference\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A4BDC2-1016-4353-B8D2-D8FC84431AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C364BB-CFFC-478E-A1A7-3BD531C07DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="46">
   <si>
     <t>รหัสยกเว้น</t>
   </si>
@@ -161,7 +161,7 @@
     <t>รหัสยกเว้นไม่ต้องมีใบอนุญาต/ใบรับรอง</t>
   </si>
   <si>
-    <t>อัพเดทล่าสุด 09/09/2564</t>
+    <t>อัพเดทล่าสุด 27/10/2564</t>
   </si>
 </sst>
 </file>
@@ -199,7 +199,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +218,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -243,8 +249,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -255,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,14 +299,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -622,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.6"/>
@@ -638,44 +673,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A3" s="2">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="12">
         <v>20171113</v>
       </c>
     </row>
@@ -1191,7 +1226,7 @@
         <v>25</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" s="4">
         <v>20171113</v>
@@ -1205,7 +1240,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D41" s="4">
         <v>20171113</v>
@@ -1219,7 +1254,7 @@
         <v>25</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D42" s="4">
         <v>20171113</v>
@@ -1230,10 +1265,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D43" s="4">
         <v>20171113</v>
@@ -1247,7 +1282,7 @@
         <v>31</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D44" s="4">
         <v>20171113</v>
@@ -1261,7 +1296,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D45" s="4">
         <v>20171113</v>
@@ -1275,7 +1310,7 @@
         <v>31</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D46" s="4">
         <v>20171113</v>
@@ -1286,10 +1321,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D47" s="4">
         <v>20171113</v>
@@ -1303,7 +1338,7 @@
         <v>26</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D48" s="4">
         <v>20171113</v>
@@ -1317,7 +1352,7 @@
         <v>26</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D49" s="4">
         <v>20171113</v>
@@ -1331,7 +1366,7 @@
         <v>26</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D50" s="4">
         <v>20171113</v>
@@ -1342,10 +1377,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D51" s="4">
         <v>20171113</v>
@@ -1359,7 +1394,7 @@
         <v>27</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D52" s="4">
         <v>20171113</v>
@@ -1373,7 +1408,7 @@
         <v>27</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D53" s="4">
         <v>20171113</v>
@@ -1384,7 +1419,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>38</v>
@@ -1401,7 +1436,7 @@
         <v>28</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D55" s="4">
         <v>20171113</v>
@@ -1412,10 +1447,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D56" s="4">
         <v>20171113</v>
@@ -1429,7 +1464,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D57" s="4">
         <v>20171113</v>
@@ -1443,7 +1478,7 @@
         <v>29</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D58" s="4">
         <v>20171113</v>
@@ -1454,10 +1489,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D59" s="4">
         <v>20171113</v>
@@ -1471,7 +1506,7 @@
         <v>30</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D60" s="4">
         <v>20171113</v>
@@ -1485,7 +1520,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D61" s="4">
         <v>20171113</v>
@@ -1499,7 +1534,7 @@
         <v>30</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D62" s="4">
         <v>20171113</v>
@@ -1513,7 +1548,7 @@
         <v>30</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D63" s="4">
         <v>20171113</v>
@@ -1524,10 +1559,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D64" s="4">
         <v>20171113</v>
@@ -1541,7 +1576,7 @@
         <v>32</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D65" s="4">
         <v>20171113</v>
@@ -1552,10 +1587,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D66" s="4">
         <v>20171113</v>
@@ -1569,7 +1604,7 @@
         <v>33</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D67" s="4">
         <v>20171113</v>
@@ -1580,10 +1615,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D68" s="4">
         <v>20171113</v>
@@ -1597,7 +1632,7 @@
         <v>34</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D69" s="4">
         <v>20171113</v>
@@ -1611,7 +1646,7 @@
         <v>34</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D70" s="4">
         <v>20171113</v>
@@ -1622,10 +1657,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D71" s="4">
         <v>20171113</v>
@@ -1639,7 +1674,7 @@
         <v>35</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D72" s="4">
         <v>20171113</v>
@@ -1653,7 +1688,7 @@
         <v>35</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D73" s="4">
         <v>20171113</v>
@@ -1664,10 +1699,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D74" s="4">
         <v>20171113</v>
@@ -1678,10 +1713,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D75" s="4">
         <v>20171113</v>
@@ -1692,10 +1727,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D76" s="4">
         <v>20171113</v>
@@ -1706,14 +1741,66 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="4">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A78" s="2">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="4">
-        <v>20171113</v>
-      </c>
+      <c r="C78" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="4">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A79" s="2">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="4">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A80" s="2">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A81" s="2">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A82" s="2">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:D60" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1741,7 +1828,7 @@
     <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>

--- a/reference/static/files/exampt.xlsx
+++ b/reference/static/files/exampt.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Develop\Git\GitHub\ecs-support\KM\reference\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Web\Git\ECS\KM\reference\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C364BB-CFFC-478E-A1A7-3BD531C07DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3727360B-37E6-4D26-A6EF-D584D70979F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId1"/>
     <sheet name="Description" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$D$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$B$2:$D$60</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="47">
   <si>
     <t>รหัสยกเว้น</t>
   </si>
@@ -161,7 +161,10 @@
     <t>รหัสยกเว้นไม่ต้องมีใบอนุญาต/ใบรับรอง</t>
   </si>
   <si>
-    <t>อัพเดทล่าสุด 27/10/2564</t>
+    <t>กรมป่าไม้</t>
+  </si>
+  <si>
+    <t>อัพเดทล่าสุด 03-11-2566</t>
   </si>
 </sst>
 </file>
@@ -280,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,10 +302,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,8 +315,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -337,9 +339,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -377,9 +379,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,26 +414,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,26 +449,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.6"/>
@@ -673,44 +641,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="F2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10">
         <v>20171113</v>
       </c>
     </row>
@@ -719,10 +687,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4">
         <v>20171113</v>
@@ -733,10 +701,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4">
         <v>20171113</v>
@@ -747,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4">
         <v>20171113</v>
@@ -761,10 +729,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4">
         <v>20171113</v>
@@ -775,10 +743,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4">
         <v>20171113</v>
@@ -789,10 +757,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D9" s="4">
         <v>20171113</v>
@@ -803,10 +771,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4">
         <v>20171113</v>
@@ -817,10 +785,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4">
         <v>20171113</v>
@@ -831,10 +799,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4">
         <v>20171113</v>
@@ -845,10 +813,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4">
         <v>20171113</v>
@@ -859,10 +827,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4">
         <v>20171113</v>
@@ -873,10 +841,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4">
         <v>20171113</v>
@@ -887,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>38</v>
@@ -901,7 +869,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
@@ -915,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>2</v>
@@ -929,10 +897,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D19" s="4">
         <v>20171113</v>
@@ -943,10 +911,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D20" s="4">
         <v>20171113</v>
@@ -957,7 +925,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2</v>
@@ -971,7 +939,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>4</v>
@@ -985,7 +953,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>6</v>
@@ -999,10 +967,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D24" s="4">
         <v>20171113</v>
@@ -1013,10 +981,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D25" s="4">
         <v>20171113</v>
@@ -1027,10 +995,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D26" s="4">
         <v>20171113</v>
@@ -1041,10 +1009,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D27" s="4">
         <v>20171113</v>
@@ -1055,10 +1023,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D28" s="4">
         <v>20171113</v>
@@ -1069,10 +1037,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D29" s="4">
         <v>20171113</v>
@@ -1083,10 +1051,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D30" s="4">
         <v>20171113</v>
@@ -1097,10 +1065,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" s="4">
         <v>20171113</v>
@@ -1111,10 +1079,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4">
         <v>20171113</v>
@@ -1125,10 +1093,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D33" s="4">
         <v>20171113</v>
@@ -1142,7 +1110,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D34" s="4">
         <v>20171113</v>
@@ -1156,7 +1124,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D35" s="4">
         <v>20171113</v>
@@ -1170,7 +1138,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D36" s="4">
         <v>20171113</v>
@@ -1181,10 +1149,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D37" s="4">
         <v>20171113</v>
@@ -1195,10 +1163,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D38" s="4">
         <v>20171113</v>
@@ -1209,10 +1177,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39" s="4">
         <v>20171113</v>
@@ -1223,10 +1191,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D40" s="4">
         <v>20171113</v>
@@ -1237,10 +1205,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D41" s="4">
         <v>20171113</v>
@@ -1251,10 +1219,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D42" s="4">
         <v>20171113</v>
@@ -1265,10 +1233,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D43" s="4">
         <v>20171113</v>
@@ -1282,7 +1250,7 @@
         <v>31</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D44" s="4">
         <v>20171113</v>
@@ -1296,7 +1264,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D45" s="4">
         <v>20171113</v>
@@ -1310,7 +1278,7 @@
         <v>31</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D46" s="4">
         <v>20171113</v>
@@ -1321,10 +1289,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D47" s="4">
         <v>20171113</v>
@@ -1338,7 +1306,7 @@
         <v>26</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D48" s="4">
         <v>20171113</v>
@@ -1352,7 +1320,7 @@
         <v>26</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D49" s="4">
         <v>20171113</v>
@@ -1366,7 +1334,7 @@
         <v>26</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D50" s="4">
         <v>20171113</v>
@@ -1377,10 +1345,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D51" s="4">
         <v>20171113</v>
@@ -1391,10 +1359,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D52" s="4">
         <v>20171113</v>
@@ -1405,10 +1373,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D53" s="4">
         <v>20171113</v>
@@ -1419,10 +1387,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D54" s="4">
         <v>20171113</v>
@@ -1433,10 +1401,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D55" s="4">
         <v>20171113</v>
@@ -1447,10 +1415,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D56" s="4">
         <v>20171113</v>
@@ -1461,10 +1429,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D57" s="4">
         <v>20171113</v>
@@ -1475,10 +1443,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D58" s="4">
         <v>20171113</v>
@@ -1489,10 +1457,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D59" s="4">
         <v>20171113</v>
@@ -1503,10 +1471,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D60" s="4">
         <v>20171113</v>
@@ -1517,7 +1485,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>6</v>
@@ -1531,10 +1499,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D62" s="4">
         <v>20171113</v>
@@ -1545,10 +1513,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D63" s="4">
         <v>20171113</v>
@@ -1559,10 +1527,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D64" s="4">
         <v>20171113</v>
@@ -1573,7 +1541,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>38</v>
@@ -1587,7 +1555,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>14</v>
@@ -1601,10 +1569,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D67" s="4">
         <v>20171113</v>
@@ -1615,10 +1583,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D68" s="4">
         <v>20171113</v>
@@ -1632,7 +1600,7 @@
         <v>34</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D69" s="4">
         <v>20171113</v>
@@ -1643,10 +1611,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D70" s="4">
         <v>20171113</v>
@@ -1657,10 +1625,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D71" s="4">
         <v>20171113</v>
@@ -1671,10 +1639,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D72" s="4">
         <v>20171113</v>
@@ -1685,7 +1653,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>38</v>
@@ -1699,7 +1667,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>14</v>
@@ -1716,7 +1684,7 @@
         <v>35</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D75" s="4">
         <v>20171113</v>
@@ -1727,10 +1695,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D76" s="4">
         <v>20171113</v>
@@ -1741,10 +1709,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D77" s="4">
         <v>20171113</v>
@@ -1755,10 +1723,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D78" s="4">
         <v>20171113</v>
@@ -1769,10 +1737,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D79" s="4">
         <v>20171113</v>
@@ -1782,9 +1750,15 @@
       <c r="A80" s="2">
         <v>78</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="4"/>
+      <c r="B80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="4">
+        <v>20171113</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A81" s="2">
@@ -1803,7 +1777,11 @@
       <c r="D82" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:D60" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:D60" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D82">
+      <sortCondition ref="B2:B60"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F2:I2"/>
@@ -1828,7 +1806,7 @@
     <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>

--- a/reference/static/files/exampt.xlsx
+++ b/reference/static/files/exampt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Web\Git\ECS\KM\reference\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3727360B-37E6-4D26-A6EF-D584D70979F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C629E470-219A-4034-811B-0062F1C744F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,21 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$B$2:$D$60</definedName>
+    <definedName name="Slicer_รหัสยกเว้น">#N/A</definedName>
+    <definedName name="Slicer_หน่วยงาน">#N/A</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId3"/>
+        <x14:slicerCache r:id="rId4"/>
+      </x15:slicerCaches>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -171,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -198,6 +211,12 @@
     <font>
       <b/>
       <sz val="28"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1" tint="0.14999847407452621"/>
       <name val="TH Sarabun New"/>
       <family val="2"/>
     </font>
@@ -228,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -253,14 +272,25 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="0"/>
       </left>
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -273,17 +303,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,30 +332,246 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="TH Sarabun New"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="TH Sarabun New"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="TH Sarabun New"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="TH Sarabun New"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="TH Sarabun New"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -336,6 +582,207 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="หน่วยงาน">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A343318-D411-A5F7-A3D0-10778000B0B9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="หน่วยงาน"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8503920" y="1097280"/>
+              <a:ext cx="6522720" cy="2238375"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="th-TH" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>236221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="รหัสยกเว้น">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0675B9F5-CE9D-4B14-8741-CF6A28C2EEA1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="รหัสยกเว้น"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8572500" y="3512821"/>
+              <a:ext cx="4701540" cy="1165860"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="th-TH" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_หน่วยงาน" xr10:uid="{6557BC58-BC18-4600-BDBC-C5F932783D13}" sourceName="หน่วยงาน">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_รหัสยกเว้น" xr10:uid="{8BB09114-332E-45B4-A404-D025272FCF1F}" sourceName="รหัสยกเว้น">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="3"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="หน่วยงาน" xr10:uid="{0A0BB697-8A65-404B-A523-7AE871E8C898}" cache="Slicer_หน่วยงาน" caption="หน่วยงาน" startItem="3" columnCount="3" rowHeight="209550"/>
+  <slicer name="รหัสยกเว้น" xr10:uid="{09C462C8-E15B-4B6C-AC4D-40E31BC80040}" cache="Slicer_รหัสยกเว้น" caption="รหัสยกเว้น" columnCount="5" rowHeight="209550"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BB9A60B-9765-47C8-897D-F5AE9345AFAE}" name="Table1" displayName="Table1" ref="A2:D80" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A2:D80" xr:uid="{7BB9A60B-9765-47C8-897D-F5AE9345AFAE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B2EFC630-57E6-4FBB-B9E6-F94882939607}" name="ลำดับ" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A4A7D77D-0B12-46DC-8134-8B675504A07B}" name="หน่วยงาน" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{13F6E662-285B-4351-8E6D-B181E38172CD}" name="รหัสยกเว้น" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{077611D1-84C6-432B-A5CF-E301BBC78742}" name="วันที่ออกใบอนุญาต" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,30 +1072,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="N11" sqref="N10:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="81.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="49" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.109375" style="5"/>
+    <col min="2" max="2" width="63.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="42" x14ac:dyDescent="1.1499999999999999">
+      <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A2" s="11" t="s">
         <v>43</v>
       </c>
@@ -661,1133 +1108,1123 @@
       <c r="D2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A3" s="8">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A4" s="2">
+      <c r="D3" s="15">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A5" s="2">
+      <c r="D4" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A6" s="2">
+      <c r="D5" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A7" s="2">
+      <c r="D6" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A8" s="2">
+      <c r="D7" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A9" s="2">
+      <c r="D8" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A10" s="2">
+      <c r="D9" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A11" s="2">
+      <c r="D10" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A12" s="2">
+      <c r="D11" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A13" s="2">
+      <c r="D12" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A14" s="2">
+      <c r="D13" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A15" s="2">
+      <c r="D14" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A16" s="2">
+      <c r="D15" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A17" s="2">
+      <c r="D16" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A18" s="2">
+      <c r="D17" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A19" s="2">
+      <c r="D18" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A20" s="2">
+      <c r="D19" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A20" s="16">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A21" s="2">
+      <c r="D20" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A21" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A22" s="2">
+      <c r="D21" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A22" s="16">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A23" s="2">
+      <c r="D22" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A23" s="16">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A24" s="2">
+      <c r="D23" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A24" s="16">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A25" s="2">
+      <c r="D24" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A25" s="16">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A26" s="2">
+      <c r="D25" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A26" s="16">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A27" s="2">
+      <c r="D26" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A27" s="16">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A28" s="2">
+      <c r="D27" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A28" s="16">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A29" s="2">
+      <c r="D28" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A29" s="16">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A30" s="2">
+      <c r="D29" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A30" s="16">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A31" s="2">
+      <c r="D30" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A31" s="16">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A32" s="2">
+      <c r="D31" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A32" s="16">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A33" s="2">
+      <c r="D32" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A33" s="16">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A34" s="2">
+      <c r="D33" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A34" s="16">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A35" s="2">
+      <c r="D34" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A35" s="16">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A36" s="2">
+      <c r="D35" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A36" s="16">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A37" s="2">
+      <c r="D36" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A37" s="16">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A38" s="2">
+      <c r="D37" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A38" s="16">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A39" s="2">
+      <c r="D38" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A39" s="16">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A40" s="2">
+      <c r="D39" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A40" s="16">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A41" s="2">
+      <c r="D40" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A41" s="16">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A42" s="2">
+      <c r="D41" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A42" s="16">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A43" s="2">
+      <c r="D42" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A43" s="16">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A44" s="2">
+      <c r="D43" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A44" s="16">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A45" s="2">
+      <c r="D44" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A45" s="16">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A46" s="2">
+      <c r="D45" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A46" s="16">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A47" s="2">
+      <c r="D46" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A47" s="16">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A48" s="2">
+      <c r="D47" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A48" s="16">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A49" s="2">
+      <c r="D48" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A49" s="16">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A50" s="2">
+      <c r="D49" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A50" s="16">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A51" s="2">
+      <c r="D50" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A51" s="16">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A52" s="2">
+      <c r="D51" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A52" s="16">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A53" s="2">
+      <c r="D52" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A53" s="16">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A54" s="2">
+      <c r="D53" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A54" s="16">
         <v>52</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A55" s="2">
+      <c r="D54" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A55" s="16">
         <v>53</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A56" s="2">
+      <c r="D55" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A56" s="16">
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A57" s="2">
+      <c r="D56" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A57" s="16">
         <v>55</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A58" s="2">
+      <c r="D57" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A58" s="16">
         <v>56</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A59" s="2">
+      <c r="D58" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A59" s="16">
         <v>57</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A60" s="2">
+      <c r="D59" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A60" s="16">
         <v>58</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A61" s="2">
+      <c r="D60" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A61" s="16">
         <v>59</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A62" s="2">
+      <c r="D61" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A62" s="16">
         <v>60</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A63" s="2">
+      <c r="D62" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A63" s="16">
         <v>61</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A64" s="2">
+      <c r="D63" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="54" x14ac:dyDescent="0.75">
+      <c r="A64" s="16">
         <v>62</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A65" s="2">
+      <c r="D64" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="54" x14ac:dyDescent="0.75">
+      <c r="A65" s="16">
         <v>63</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A66" s="2">
+      <c r="D65" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="54" x14ac:dyDescent="0.75">
+      <c r="A66" s="16">
         <v>64</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A67" s="2">
+      <c r="D66" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A67" s="16">
         <v>65</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A68" s="2">
+      <c r="D67" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A68" s="16">
         <v>66</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A69" s="2">
+      <c r="D68" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A69" s="16">
         <v>67</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="D69" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A70" s="2">
         <v>68</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="4">
         <v>20171113</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D71" s="4">
         <v>20171113</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A72" s="2">
         <v>70</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="4">
         <v>20171113</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A73" s="2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A73" s="16">
         <v>71</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A74" s="2">
+      <c r="D73" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A74" s="16">
         <v>72</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A75" s="2">
+      <c r="D74" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A75" s="16">
         <v>73</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A76" s="2">
+      <c r="D75" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A76" s="16">
         <v>74</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D76" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A77" s="2">
+      <c r="D76" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A77" s="16">
         <v>75</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A78" s="2">
+      <c r="D77" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A78" s="16">
         <v>76</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D78" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A79" s="2">
+      <c r="D78" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A79" s="16">
         <v>77</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A80" s="2">
+      <c r="D79" s="18">
+        <v>20171113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A80" s="19">
         <v>78</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D80" s="4">
-        <v>20171113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A81" s="2">
-        <v>79</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A82" s="2">
-        <v>80</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="4"/>
+      <c r="D80" s="21">
+        <v>20171113</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:D60" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D82">
-      <sortCondition ref="B2:B60"/>
-    </sortState>
-  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1799,14 +2236,14 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="144.28515625" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="16.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="144.33203125" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1822,7 +2259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1830,7 +2267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1838,7 +2275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1846,7 +2283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1854,7 +2291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1862,7 +2299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -1870,7 +2307,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1878,7 +2315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
